--- a/va_facility_data_2025-02-20/PFC Floyd K. Lindstrom Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''PFC%20Floyd%20K.%20Lindstrom%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/PFC Floyd K. Lindstrom Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''PFC%20Floyd%20K.%20Lindstrom%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5b393272e57c4d8ca3d270596cb7279f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b71fc17ad904dc98f3be4af26fb2bbf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re76577c537e14637994cd3cd5341fc04"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5ffd8ee08fa94497ab1e68cdb76132a0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbfa3f90fa53d4ef59769fd042147fa86"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re6723ff6be554442b2fab5ba3e4d674b"/>
   </x:sheets>
 </x:workbook>
 </file>
